--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_235.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_235.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D']]</t>
-        </is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1964285714285714</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Eb', 'F', 'Bb']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(9.979342, 15.029682)]</t>
+          <t>[['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(44.917324, 48.272607)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+          <t>[('0:00:09.162102', '0:00:17.463236')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:04:21.828000', '0:04:35.800000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1859649122807017</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'C']]</t>
-        </is>
+          <t>isophonics_212</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1536231884057971</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(135.68755, 139.228594)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(105.0, 108.54)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:46.932280', '0:00:55.860352')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:14.450219', '0:00:23.088042')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A/3']]</t>
-        </is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1859649122807017</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>[['G', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(13.527, 17.058)]</t>
+          <t>[['C', 'C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(57.251357, 73.909779)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:09.231677', '0:00:14.374897')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:04.514625', '0:01:27.246961')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1426282051282051</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_227</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06613372093023256</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(76.56, 94.12)]</t>
+          <t>[['E:7', 'A:min', 'A:min/b3']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.38, 8.9)]</t>
+          <t>[('0:00:13.660000', '0:00:17.900000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:05.672040', '0:00:08.841564')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
-        </is>
+          <t>jaah_7</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_160</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06127827805842301</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['F:7', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(160.02, 164.86)]</t>
+          <t>[['Eb:7', 'Ab:maj', 'Ab/7'], ['Bb:7', 'Eb:7', 'Ab:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(158.28, 163.56)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:08.940000', '0:00:11.880000'), ('0:00:27.250000', '0:00:29.620000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:54.072000', '0:00:59.053000'), ('0:00:37.633000', '0:00:41.753000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2884615384615384</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(10.619, 16.742)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(31.46941, 118.925813)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_185</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1512605042016807</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj/9', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'A']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(59.937074, 74.960385)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(19.371814, 23.760385)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:45', '0:01:48.540000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09999999999999999</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'B/7']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'A']]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(4.940612, 6.577619)]</t>
+          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(27.510408, 38.772086)]</t>
+          <t>[('0:01:38.700000', '0:01:58.800000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>[('0:00:32.480000', '0:00:45.820000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05720720720720721</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B', 'B/7', 'B/6']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(16.13, 24.98)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.440395, 2.746326)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
-        </is>
-      </c>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3095238095238095</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.525</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(42.52, 50.16)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(10.82, 26.2)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:02.780000', '0:02:17.555000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.103448275862069</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Db:maj', 'Ab:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(2.537346, 8.504874)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(45.887, 51.649)]</t>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:25.720000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1899350649350649</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'C#:7/G#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G', 'B:7', 'E:min']]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.56, 7.02)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.427, 5.357)]</t>
+          <t>[('0:00:22.820000', '0:00:26.720000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:01:06.920000', '0:01:10.300000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(107.9, 109.3)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(39.02, 57.2)]</t>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_55</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1168831168831169</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj', 'F:maj', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C'], ['C', 'C', 'C:7']]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(60.72, 68.12), (61.68, 70.98)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(47.25, 51.08), (38.58, 39.86)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9), (1.18, 6.14)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (13.74, 22.56)]</t>
+          <t>[('0:00:14.460000', '0:00:19.040000'), ('0:00:24.660000', '0:00:27.760000'), ('0:00:19.700000', '0:00:21.360000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_5</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_133</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.16875</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D/3', 'G', 'D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(9.162102, 14.073123)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(57.251357, 73.909779)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
